--- a/downloaded_files/ARCS402_Tutorial-35236.xlsx
+++ b/downloaded_files/ARCS402_Tutorial-35236.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>BASSANT MOSTAFA SABDELRAHMAN</x:t>
   </x:si>
   <x:si>
+    <x:t>1210211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم ايمن احمد فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tasneem ayman ahmed abdulbaki fouda</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210213</x:t>
   </x:si>
   <x:si>
@@ -348,6 +357,15 @@
     <x:t>Mazen abdelreheem shams el din</x:t>
   </x:si>
   <x:si>
+    <x:t>1200437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كمال عبد الجواد عبد الجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed kamal Abdelgawad Abdelgawad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210293</x:t>
   </x:si>
   <x:si>
@@ -409,6 +427,15 @@
   </x:si>
   <x:si>
     <x:t>Mai Ahmed Abdel-Aziz Abou-Hagar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مى عبد الحكيم ابراهيم احمد منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Abdelhakim Ibrahim Ahmed Mansour</x:t>
   </x:si>
   <x:si>
     <x:t>1210315</x:t>
@@ -713,7 +740,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E64" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E67" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1013,7 +1040,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T64"/>
+  <x:dimension ref="A1:T67"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1456,7 +1483,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.414721412</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1488,7 +1515,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4144105671</x:v>
+        <x:v>45906.414721412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1520,7 +1547,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147916667</x:v>
+        <x:v>45906.4144105671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1552,7 +1579,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4152533912</x:v>
+        <x:v>45906.4147916667</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1584,7 +1611,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.414777581</x:v>
+        <x:v>45906.4152533912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1616,7 +1643,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649853819</x:v>
+        <x:v>45906.414777581</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1648,7 +1675,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.6649853819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1680,7 +1707,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147481481</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1712,7 +1739,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4146887384</x:v>
+        <x:v>45906.4147481481</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1744,7 +1771,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.415149537</x:v>
+        <x:v>45906.4146887384</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1776,7 +1803,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4153674421</x:v>
+        <x:v>45906.415149537</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1808,7 +1835,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4141916319</x:v>
+        <x:v>45906.4153674421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1840,7 +1867,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4198232639</x:v>
+        <x:v>45906.4141916319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1872,7 +1899,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4178362269</x:v>
+        <x:v>45906.4198232639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1904,7 +1931,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4143293981</x:v>
+        <x:v>45906.4178362269</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1936,7 +1963,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45906.4143293981</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1968,7 +1995,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.664653125</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -2000,7 +2027,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.420693831</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2032,7 +2059,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6808895833</x:v>
+        <x:v>45906.420693831</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2064,7 +2091,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.414668669</x:v>
+        <x:v>45906.6808895833</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2096,7 +2123,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.5469863773</x:v>
+        <x:v>45906.414668669</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2128,7 +2155,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4146471875</x:v>
+        <x:v>45906.5469863773</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2160,7 +2187,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45906.4146471875</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2192,7 +2219,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2224,7 +2251,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6684288194</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2256,7 +2283,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2288,7 +2315,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4153359606</x:v>
+        <x:v>45906.6684288194</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2320,7 +2347,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2352,7 +2379,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.4153359606</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2384,7 +2411,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4166713773</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2416,7 +2443,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2448,7 +2475,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.4166713773</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2480,7 +2507,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4172760417</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2512,7 +2539,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2544,7 +2571,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2576,7 +2603,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4144498843</x:v>
+        <x:v>45906.4172760417</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2608,7 +2635,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6655195602</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2640,7 +2667,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2672,7 +2699,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.4144498843</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2704,7 +2731,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.6655195602</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2736,7 +2763,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2768,7 +2795,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2800,7 +2827,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2832,7 +2859,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2864,7 +2891,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2896,7 +2923,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2928,7 +2955,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2960,7 +2987,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.4147703704</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2992,7 +3019,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45906.6832625347</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3024,7 +3051,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3056,7 +3083,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45906.4147784722</x:v>
+        <x:v>45906.4147703704</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3088,7 +3115,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E64" s="3">
-        <x:v>45906.4146188657</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F64" s="2" t="s"/>
       <x:c r="G64" s="2" t="s"/>
@@ -3105,6 +3132,102 @@
       <x:c r="R64" s="2" t="s"/>
       <x:c r="S64" s="2" t="s"/>
       <x:c r="T64" s="2" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:20">
+      <x:c r="A65" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D65" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E65" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F65" s="2" t="s"/>
+      <x:c r="G65" s="2" t="s"/>
+      <x:c r="H65" s="2" t="s"/>
+      <x:c r="I65" s="2" t="s"/>
+      <x:c r="J65" s="2" t="s"/>
+      <x:c r="K65" s="2" t="s"/>
+      <x:c r="L65" s="2" t="s"/>
+      <x:c r="M65" s="2" t="s"/>
+      <x:c r="N65" s="2" t="s"/>
+      <x:c r="O65" s="2" t="s"/>
+      <x:c r="P65" s="2" t="s"/>
+      <x:c r="Q65" s="2" t="s"/>
+      <x:c r="R65" s="2" t="s"/>
+      <x:c r="S65" s="2" t="s"/>
+      <x:c r="T65" s="2" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20">
+      <x:c r="A66" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D66" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E66" s="3">
+        <x:v>45906.4147784722</x:v>
+      </x:c>
+      <x:c r="F66" s="2" t="s"/>
+      <x:c r="G66" s="2" t="s"/>
+      <x:c r="H66" s="2" t="s"/>
+      <x:c r="I66" s="2" t="s"/>
+      <x:c r="J66" s="2" t="s"/>
+      <x:c r="K66" s="2" t="s"/>
+      <x:c r="L66" s="2" t="s"/>
+      <x:c r="M66" s="2" t="s"/>
+      <x:c r="N66" s="2" t="s"/>
+      <x:c r="O66" s="2" t="s"/>
+      <x:c r="P66" s="2" t="s"/>
+      <x:c r="Q66" s="2" t="s"/>
+      <x:c r="R66" s="2" t="s"/>
+      <x:c r="S66" s="2" t="s"/>
+      <x:c r="T66" s="2" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:20">
+      <x:c r="A67" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D67" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E67" s="3">
+        <x:v>45906.4146188657</x:v>
+      </x:c>
+      <x:c r="F67" s="2" t="s"/>
+      <x:c r="G67" s="2" t="s"/>
+      <x:c r="H67" s="2" t="s"/>
+      <x:c r="I67" s="2" t="s"/>
+      <x:c r="J67" s="2" t="s"/>
+      <x:c r="K67" s="2" t="s"/>
+      <x:c r="L67" s="2" t="s"/>
+      <x:c r="M67" s="2" t="s"/>
+      <x:c r="N67" s="2" t="s"/>
+      <x:c r="O67" s="2" t="s"/>
+      <x:c r="P67" s="2" t="s"/>
+      <x:c r="Q67" s="2" t="s"/>
+      <x:c r="R67" s="2" t="s"/>
+      <x:c r="S67" s="2" t="s"/>
+      <x:c r="T67" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
